--- a/output/StructureDefinition-cycling-dynamics-observation.xlsx
+++ b/output/StructureDefinition-cycling-dynamics-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,9 +685,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="52087000"/&gt;
-    &lt;display value="Cycling (observable entity)"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="73985-4"/&gt;
+    &lt;display value="Exercise activity"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2051,9 +2051,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="103211-4"/&gt;
-    &lt;display value="Pedaling rate"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cycling-metrics-cs"/&gt;
+    &lt;code value="cadence"/&gt;
+    &lt;display value="Cadence"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2239,7 +2239,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cycling-metrics-cs"/&gt;
     &lt;code value="kj"/&gt;
-    &lt;display value="Work in Kilojoules"/&gt;
+    &lt;display value="Kilojoules"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
